--- a/garnt vhart.xlsx
+++ b/garnt vhart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital-Media-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFDC1A7-2FEC-4253-A3D3-89838C551C71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA16B4-09DD-47E5-966E-3292673346BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9036" xr2:uid="{514C5F58-F506-4E03-AB14-CD4E121DF040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>SN</t>
   </si>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,16 +165,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,11 +186,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -268,28 +255,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +592,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,8 +766,8 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -791,8 +776,8 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/garnt vhart.xlsx
+++ b/garnt vhart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital-Media-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA16B4-09DD-47E5-966E-3292673346BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193450A0-2536-4C52-90CD-E168AEB28589}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9036" xr2:uid="{514C5F58-F506-4E03-AB14-CD4E121DF040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>SN</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Propsal Report</t>
+  </si>
+  <si>
+    <t>gggyygyg</t>
   </si>
 </sst>
 </file>
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF63351-1625-4877-BBB3-6BEE2F8BEED7}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,6 +782,11 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/garnt vhart.xlsx
+++ b/garnt vhart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital-Media-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193450A0-2536-4C52-90CD-E168AEB28589}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A601069-F5B9-47E6-A21A-DF4F16100495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9036" xr2:uid="{514C5F58-F506-4E03-AB14-CD4E121DF040}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>SN</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Propsal Report</t>
-  </si>
-  <si>
-    <t>gggyygyg</t>
   </si>
 </sst>
 </file>
@@ -592,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF63351-1625-4877-BBB3-6BEE2F8BEED7}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,11 +779,6 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
